--- a/시장분석용_정보/시장분석용_4713031500.xlsx
+++ b/시장분석용_정보/시장분석용_4713031500.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202001 5059008075</t>
   </si>
   <si>
@@ -145,16 +235,16 @@
     <t>202011 5059008075</t>
   </si>
   <si>
+    <t>JDQ4MTYyMiM4MSMkMiMkMCMkMDAkMzgxMTkxIzMxIyQyIyQzIyQwMCQzNjEwMDIjNTEjJDEjJDYjJDgz</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
     <t>양북우리들의원</t>
   </si>
   <si>
-    <t>경상북도 경주시 양북면 어일중앙길 28</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMiMkMCMkMDAkMzgxMTkxIzMxIyQyIyQzIyQwMCQzNjEwMDIjNTEjJDEjJDYjJDgz</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>경상북도 경주시 양북면 어일중앙길 28 우리들의원</t>
   </si>
   <si>
     <t>외과</t>
@@ -515,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,43 +708,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>3588</v>
+        <v>548</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>18843649</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>5059008075</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2">
+        <v>76</v>
+      </c>
+      <c r="J2">
         <v>4713031500</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
       </c>
       <c r="M2">
         <v>584243</v>
@@ -666,96 +846,186 @@
         <v>11350</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>94.19</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.93</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>12.78</v>
       </c>
       <c r="U2">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>65.11</v>
+      </c>
+      <c r="X2">
+        <v>5.81</v>
+      </c>
+      <c r="Y2">
+        <v>17.27</v>
+      </c>
+      <c r="Z2">
+        <v>82.73</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
         <v>27.31</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
         <v>63.35</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <v>9.34</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>27.31</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>20.35</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
         <v>52.33</v>
       </c>
+      <c r="AX2">
+        <v>27.31</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>48.81</v>
+      </c>
+      <c r="BB2">
+        <v>23.88</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>27.31</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>51.19</v>
+      </c>
+      <c r="BI2">
+        <v>51.19</v>
+      </c>
+      <c r="BJ2">
+        <v>60</v>
+      </c>
+      <c r="BK2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>25121</v>
+        <v>2601</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>18843649</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>5059008075</v>
       </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3">
+        <v>76</v>
+      </c>
+      <c r="J3">
         <v>4713031500</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
       </c>
       <c r="M3">
         <v>725491</v>
@@ -767,96 +1037,186 @@
         <v>15744</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>92.73</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>7.27</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>6.63</v>
+      </c>
+      <c r="T3">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="U3">
+        <v>27.66</v>
+      </c>
+      <c r="V3">
+        <v>11.29</v>
+      </c>
+      <c r="W3">
+        <v>39.1</v>
+      </c>
+      <c r="X3">
+        <v>7.27</v>
+      </c>
+      <c r="Y3">
+        <v>7.27</v>
+      </c>
+      <c r="Z3">
+        <v>34.3</v>
+      </c>
+      <c r="AA3">
+        <v>58.43</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>3.81</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>39.1</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
         <v>3.81</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>27.66</v>
       </c>
-      <c r="Y3">
+      <c r="AO3">
         <v>25.62</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>3.81</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
         <v>65.7</v>
       </c>
-      <c r="AF3">
+      <c r="AV3">
         <v>27.66</v>
       </c>
-      <c r="AG3">
+      <c r="AW3">
         <v>2.82</v>
       </c>
+      <c r="AX3">
+        <v>3.81</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>31.47</v>
+      </c>
+      <c r="BB3">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>3.81</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>3.81</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>45.73</v>
+      </c>
+      <c r="BI3">
+        <v>45.73</v>
+      </c>
+      <c r="BJ3">
+        <v>16.7</v>
+      </c>
+      <c r="BK3">
+        <v>16.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>46554</v>
+        <v>4622</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>18843649</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>5059008075</v>
       </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4">
+        <v>76</v>
+      </c>
+      <c r="J4">
         <v>4713031500</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
       </c>
       <c r="M4">
         <v>515060</v>
@@ -868,96 +1228,186 @@
         <v>8667</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>79.23</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
+        <v>45.87</v>
+      </c>
+      <c r="T4">
+        <v>16.25</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>17.12</v>
+      </c>
+      <c r="X4">
+        <v>20.77</v>
+      </c>
+      <c r="Y4">
+        <v>58.46</v>
+      </c>
+      <c r="Z4">
+        <v>36.35</v>
+      </c>
+      <c r="AA4">
+        <v>5.19</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <v>9.81</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
         <v>16.54</v>
       </c>
-      <c r="V4">
+      <c r="AL4">
         <v>28.46</v>
       </c>
-      <c r="W4">
+      <c r="AM4">
         <v>9.81</v>
       </c>
-      <c r="X4">
+      <c r="AN4">
         <v>23.46</v>
       </c>
-      <c r="Y4">
+      <c r="AO4">
         <v>11.92</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
         <v>16.54</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>46.92</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
         <v>13.08</v>
       </c>
-      <c r="AF4">
+      <c r="AV4">
         <v>23.46</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>45</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>9.81</v>
+      </c>
+      <c r="BB4">
+        <v>45.19</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>45</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>96.73</v>
+      </c>
+      <c r="BI4">
+        <v>96.73</v>
+      </c>
+      <c r="BJ4">
+        <v>28.6</v>
+      </c>
+      <c r="BK4">
+        <v>57.1</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>67932</v>
+        <v>6633</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>18843649</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>5059008075</v>
       </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5">
+        <v>76</v>
+      </c>
+      <c r="J5">
         <v>4713031500</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
       </c>
       <c r="M5">
         <v>676904</v>
@@ -969,96 +1419,186 @@
         <v>8700</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>91.34</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>8.66</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>10.11</v>
       </c>
       <c r="U5">
+        <v>8.81</v>
+      </c>
+      <c r="V5">
+        <v>14.25</v>
+      </c>
+      <c r="W5">
+        <v>13.56</v>
+      </c>
+      <c r="X5">
+        <v>8.66</v>
+      </c>
+      <c r="Y5">
+        <v>22.3</v>
+      </c>
+      <c r="Z5">
+        <v>52.57</v>
+      </c>
+      <c r="AA5">
+        <v>25.13</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
         <v>33.56</v>
       </c>
-      <c r="V5">
+      <c r="AL5">
         <v>7.89</v>
       </c>
-      <c r="W5">
+      <c r="AM5">
         <v>6.28</v>
       </c>
-      <c r="X5">
+      <c r="AN5">
         <v>10.19</v>
       </c>
-      <c r="Y5">
+      <c r="AO5">
         <v>42.07</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <v>33.56</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>4.14</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>34.79</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>13.64</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>12.49</v>
       </c>
-      <c r="AG5">
+      <c r="AW5">
         <v>1.38</v>
       </c>
+      <c r="AX5">
+        <v>37.7</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>3.68</v>
+      </c>
+      <c r="BA5">
+        <v>7.74</v>
+      </c>
+      <c r="BB5">
+        <v>43.6</v>
+      </c>
+      <c r="BC5">
+        <v>7.28</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>37.7</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>91.34</v>
+      </c>
+      <c r="BI5">
+        <v>91.34</v>
+      </c>
+      <c r="BJ5">
+        <v>44.4</v>
+      </c>
+      <c r="BK5">
+        <v>22.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>89417</v>
+        <v>8656</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>18843649</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>5059008075</v>
       </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6">
+        <v>76</v>
+      </c>
+      <c r="J6">
         <v>4713031500</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
       </c>
       <c r="M6">
         <v>373948</v>
@@ -1070,10 +1610,10 @@
         <v>6718</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>19.76</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1082,84 +1622,174 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>24.36</v>
       </c>
       <c r="U6">
+        <v>18.67</v>
+      </c>
+      <c r="V6">
+        <v>17.59</v>
+      </c>
+      <c r="W6">
+        <v>19.62</v>
+      </c>
+      <c r="X6">
+        <v>19.76</v>
+      </c>
+      <c r="Y6">
+        <v>84.98</v>
+      </c>
+      <c r="Z6">
+        <v>15.02</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
         <v>93.5</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
         <v>6.5</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>87.01000000000001</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>6.5</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>6.5</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>93.5</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>6.5</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>93.5</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>87.01000000000001</v>
+      </c>
+      <c r="BI6">
+        <v>87.01000000000001</v>
+      </c>
+      <c r="BJ6">
+        <v>66.7</v>
+      </c>
+      <c r="BK6">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>111101</v>
+        <v>10700</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
         <v>202006</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>18843649</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>5059008075</v>
       </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7">
+        <v>76</v>
+      </c>
+      <c r="J7">
         <v>4713031500</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
       </c>
       <c r="M7">
         <v>565644</v>
@@ -1171,7 +1801,7 @@
         <v>12222</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1180,87 +1810,177 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>3.64</v>
+      </c>
+      <c r="T7">
+        <v>18.36</v>
+      </c>
+      <c r="U7">
+        <v>66.18000000000001</v>
+      </c>
+      <c r="V7">
+        <v>8.18</v>
+      </c>
+      <c r="W7">
+        <v>3.64</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>42</v>
+      </c>
+      <c r="Z7">
+        <v>58</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>4.91</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
         <v>37.09</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
         <v>58</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>37.09</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>9.82</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>53.09</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>37.09</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>4.91</v>
+      </c>
+      <c r="BA7">
+        <v>58</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>37.09</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>42</v>
+      </c>
+      <c r="BI7">
+        <v>42</v>
+      </c>
+      <c r="BJ7">
+        <v>25</v>
+      </c>
+      <c r="BK7">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>132808</v>
+        <v>12749</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
         <v>202007</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>18843649</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>5059008075</v>
       </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8">
+        <v>76</v>
+      </c>
+      <c r="J8">
         <v>4713031500</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
       </c>
       <c r="M8">
         <v>397562</v>
@@ -1272,96 +1992,186 @@
         <v>6475</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>87.39</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>12.61</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="T8">
+        <v>23.17</v>
+      </c>
+      <c r="U8">
+        <v>23.68</v>
+      </c>
+      <c r="V8">
+        <v>10.3</v>
+      </c>
+      <c r="W8">
+        <v>25.1</v>
+      </c>
+      <c r="X8">
+        <v>12.61</v>
+      </c>
+      <c r="Y8">
+        <v>91.12</v>
+      </c>
+      <c r="Z8">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>1.93</v>
       </c>
-      <c r="U8">
+      <c r="AK8">
         <v>91.12</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>6.95</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>93.05</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>6.95</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>91.12</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>6.95</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>1.93</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>91.12</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>93.05</v>
+      </c>
+      <c r="BI8">
+        <v>93.05</v>
+      </c>
+      <c r="BJ8">
+        <v>33.3</v>
+      </c>
+      <c r="BK8">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>154529</v>
+        <v>14801</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
         <v>202008</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>18843649</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>5059008075</v>
       </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9">
+        <v>76</v>
+      </c>
+      <c r="J9">
         <v>4713031500</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>77</v>
       </c>
       <c r="M9">
         <v>393091</v>
@@ -1373,7 +2183,7 @@
         <v>5885</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1382,87 +2192,177 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>21.18</v>
+      </c>
+      <c r="T9">
+        <v>19.48</v>
+      </c>
+      <c r="U9">
+        <v>32.29</v>
+      </c>
+      <c r="V9">
+        <v>8.24</v>
+      </c>
+      <c r="W9">
+        <v>18.82</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>83.53</v>
+      </c>
+      <c r="Z9">
+        <v>16.47</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>7.06</v>
       </c>
-      <c r="T9">
+      <c r="AJ9">
         <v>8.24</v>
       </c>
-      <c r="U9">
+      <c r="AK9">
         <v>59.87</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>7.06</v>
       </c>
-      <c r="X9">
+      <c r="AN9">
         <v>7.06</v>
       </c>
-      <c r="Y9">
+      <c r="AO9">
         <v>10.72</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>68.09999999999999</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>10.72</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>21.18</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>59.87</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>7.06</v>
+      </c>
+      <c r="BA9">
+        <v>7.06</v>
+      </c>
+      <c r="BB9">
+        <v>15.29</v>
+      </c>
+      <c r="BC9">
+        <v>10.72</v>
+      </c>
+      <c r="BD9">
+        <v>8.24</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>59.87</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>90.59</v>
+      </c>
+      <c r="BI9">
+        <v>90.59</v>
+      </c>
+      <c r="BJ9">
+        <v>14.3</v>
+      </c>
+      <c r="BK9">
+        <v>28.6</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>176229</v>
+        <v>16838</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
         <v>202009</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>18843649</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>5059008075</v>
       </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10">
+        <v>76</v>
+      </c>
+      <c r="J10">
         <v>4713031500</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
       </c>
       <c r="M10">
         <v>650568</v>
@@ -1474,96 +2374,186 @@
         <v>7488</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>56.64</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>43.36</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
+        <v>14.77</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>3.14</v>
+      </c>
+      <c r="V10">
+        <v>35.59</v>
+      </c>
+      <c r="W10">
+        <v>3.14</v>
+      </c>
+      <c r="X10">
+        <v>43.36</v>
+      </c>
+      <c r="Y10">
+        <v>71.56</v>
+      </c>
+      <c r="Z10">
+        <v>24.19</v>
+      </c>
+      <c r="AA10">
+        <v>4.24</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <v>8.960000000000001</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>21.6</v>
       </c>
-      <c r="U10">
+      <c r="AK10">
         <v>55.7</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>7.54</v>
       </c>
-      <c r="X10">
+      <c r="AN10">
         <v>6.21</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>77.3</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>8.960000000000001</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>6.21</v>
       </c>
-      <c r="AF10">
+      <c r="AV10">
         <v>7.54</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>55.7</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>17.99</v>
+      </c>
+      <c r="BB10">
+        <v>26.32</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>21.6</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>55.7</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>55.7</v>
+      </c>
+      <c r="BI10">
+        <v>60.41</v>
+      </c>
+      <c r="BJ10">
+        <v>16.7</v>
+      </c>
+      <c r="BK10">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>197965</v>
+        <v>18890</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11">
         <v>202010</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>18843649</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>5059008075</v>
       </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11">
+        <v>76</v>
+      </c>
+      <c r="J11">
         <v>4713031500</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
       </c>
       <c r="M11">
         <v>119169</v>
@@ -1575,7 +2565,7 @@
         <v>5825</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1584,87 +2574,177 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>17.17</v>
+      </c>
+      <c r="T11">
+        <v>44.21</v>
+      </c>
+      <c r="U11">
+        <v>38.63</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>40.34</v>
+      </c>
+      <c r="Z11">
+        <v>59.66</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>21.03</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <v>55.79</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>23.18</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>55.79</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>44.21</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>55.79</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>44.21</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>55.79</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>76.81999999999999</v>
+      </c>
+      <c r="BI11">
+        <v>100</v>
+      </c>
+      <c r="BJ11">
+        <v>33.3</v>
+      </c>
+      <c r="BK11">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>219705</v>
+        <v>20935</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12">
         <v>202011</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>18843649</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>5059008075</v>
       </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12">
+        <v>76</v>
+      </c>
+      <c r="J12">
         <v>4713031500</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
       </c>
       <c r="M12">
         <v>112005</v>
@@ -1676,7 +2756,7 @@
         <v>7333</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1685,29 +2765,29 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>18.18</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>40.91</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>40.91</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>81.81999999999999</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
+      <c r="Z12">
         <v>18.18</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
       <c r="AA12">
         <v>0</v>
       </c>
@@ -1715,19 +2795,109 @@
         <v>0</v>
       </c>
       <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <v>81.81999999999999</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <v>18.18</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>18.18</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>18.18</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>100</v>
+      </c>
+      <c r="BI12">
+        <v>100</v>
+      </c>
+      <c r="BJ12">
+        <v>50</v>
+      </c>
+      <c r="BK12">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4713031500.xlsx
+++ b/시장분석용_정보/시장분석용_4713031500.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>548</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>5059008075</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4713031500</v>
@@ -708,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>584243</v>
@@ -720,37 +624,37 @@
         <v>11350</v>
       </c>
       <c r="O2">
-        <v>94.19</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.81</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>7.93</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>12.78</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>8.369999999999999</v>
+        <v>27.31</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>65.11</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>5.81</v>
+        <v>63.35</v>
       </c>
       <c r="X2">
-        <v>17.27</v>
+        <v>9.34</v>
       </c>
       <c r="Y2">
-        <v>82.73</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -759,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>27.31</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>20.35</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -771,66 +675,18 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>27.31</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>63.35</v>
-      </c>
-      <c r="AN2">
-        <v>9.34</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>27.31</v>
-      </c>
-      <c r="AS2">
-        <v>20.35</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
         <v>52.33</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>2601</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>5059008075</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4713031500</v>
@@ -854,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>725491</v>
@@ -866,117 +722,69 @@
         <v>15744</v>
       </c>
       <c r="O3">
-        <v>92.73</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7.27</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="R3">
-        <v>6.63</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>8.050000000000001</v>
+        <v>39.1</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3.81</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>27.66</v>
       </c>
-      <c r="U3">
-        <v>11.29</v>
-      </c>
-      <c r="V3">
-        <v>39.1</v>
-      </c>
-      <c r="W3">
-        <v>7.27</v>
-      </c>
       <c r="X3">
-        <v>7.27</v>
+        <v>25.62</v>
       </c>
       <c r="Y3">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>58.43</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>65.7</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>27.66</v>
       </c>
       <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>3.81</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>39.1</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>3.81</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>27.66</v>
-      </c>
-      <c r="AN3">
-        <v>25.62</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>3.81</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>65.7</v>
-      </c>
-      <c r="AU3">
-        <v>27.66</v>
-      </c>
-      <c r="AV3">
         <v>2.82</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>4622</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -988,10 +796,10 @@
         <v>5059008075</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4713031500</v>
@@ -1000,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>515060</v>
@@ -1012,117 +820,69 @@
         <v>8667</v>
       </c>
       <c r="O4">
-        <v>79.23</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>20.77</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>45.87</v>
+        <v>9.81</v>
       </c>
       <c r="S4">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>16.54</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>28.46</v>
       </c>
       <c r="V4">
-        <v>17.12</v>
+        <v>9.81</v>
       </c>
       <c r="W4">
-        <v>20.77</v>
+        <v>23.46</v>
       </c>
       <c r="X4">
-        <v>58.46</v>
+        <v>11.92</v>
       </c>
       <c r="Y4">
-        <v>36.35</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>5.19</v>
+        <v>16.54</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>46.92</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>13.08</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>23.46</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>9.81</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>16.54</v>
-      </c>
-      <c r="AK4">
-        <v>28.46</v>
-      </c>
-      <c r="AL4">
-        <v>9.81</v>
-      </c>
-      <c r="AM4">
-        <v>23.46</v>
-      </c>
-      <c r="AN4">
-        <v>11.92</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>16.54</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>46.92</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>13.08</v>
-      </c>
-      <c r="AU4">
-        <v>23.46</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>6633</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1134,10 +894,10 @@
         <v>5059008075</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4713031500</v>
@@ -1146,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>676904</v>
@@ -1158,117 +918,69 @@
         <v>8700</v>
       </c>
       <c r="O5">
-        <v>91.34</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>8.66</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>10.11</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>8.81</v>
+        <v>33.56</v>
       </c>
       <c r="U5">
-        <v>14.25</v>
+        <v>7.89</v>
       </c>
       <c r="V5">
-        <v>13.56</v>
+        <v>6.28</v>
       </c>
       <c r="W5">
-        <v>8.66</v>
+        <v>10.19</v>
       </c>
       <c r="X5">
-        <v>22.3</v>
+        <v>42.07</v>
       </c>
       <c r="Y5">
-        <v>52.57</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>25.13</v>
+        <v>33.56</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>34.79</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>13.64</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>12.49</v>
       </c>
       <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>33.56</v>
-      </c>
-      <c r="AK5">
-        <v>7.89</v>
-      </c>
-      <c r="AL5">
-        <v>6.28</v>
-      </c>
-      <c r="AM5">
-        <v>10.19</v>
-      </c>
-      <c r="AN5">
-        <v>42.07</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>33.56</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>4.14</v>
-      </c>
-      <c r="AS5">
-        <v>34.79</v>
-      </c>
-      <c r="AT5">
-        <v>13.64</v>
-      </c>
-      <c r="AU5">
-        <v>12.49</v>
-      </c>
-      <c r="AV5">
         <v>1.38</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>8656</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1280,10 +992,10 @@
         <v>5059008075</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4713031500</v>
@@ -1292,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>373948</v>
@@ -1304,10 +1016,10 @@
         <v>6718</v>
       </c>
       <c r="O6">
-        <v>80.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>19.76</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1316,25 +1028,25 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>24.36</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>18.67</v>
+        <v>93.5</v>
       </c>
       <c r="U6">
-        <v>17.59</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>19.62</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>19.76</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>84.98</v>
+        <v>6.5</v>
       </c>
       <c r="Y6">
-        <v>15.02</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1343,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1357,64 +1069,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>93.5</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>6.5</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>87.01000000000001</v>
-      </c>
-      <c r="AS6">
-        <v>6.5</v>
-      </c>
-      <c r="AT6">
-        <v>6.5</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>10700</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1426,10 +1090,10 @@
         <v>5059008075</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4713031500</v>
@@ -1438,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>565644</v>
@@ -1450,7 +1114,7 @@
         <v>12222</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1459,28 +1123,28 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>3.64</v>
+        <v>4.91</v>
       </c>
       <c r="S7">
-        <v>18.36</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>66.18000000000001</v>
+        <v>37.09</v>
       </c>
       <c r="U7">
-        <v>8.18</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>3.64</v>
+        <v>58</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1489,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>37.09</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>9.82</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>53.09</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1503,64 +1167,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>4.91</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>37.09</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>58</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>37.09</v>
-      </c>
-      <c r="AS7">
-        <v>9.82</v>
-      </c>
-      <c r="AT7">
-        <v>53.09</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>12749</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1572,10 +1188,10 @@
         <v>5059008075</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4713031500</v>
@@ -1584,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>397562</v>
@@ -1596,37 +1212,37 @@
         <v>6475</v>
       </c>
       <c r="O8">
-        <v>87.39</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.61</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>23.17</v>
+        <v>1.93</v>
       </c>
       <c r="T8">
-        <v>23.68</v>
+        <v>91.12</v>
       </c>
       <c r="U8">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>25.1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>12.61</v>
+        <v>6.95</v>
       </c>
       <c r="X8">
-        <v>91.12</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>8.880000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1635,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>93.05</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1649,64 +1265,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>1.93</v>
-      </c>
-      <c r="AJ8">
-        <v>91.12</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>6.95</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>93.05</v>
-      </c>
-      <c r="AS8">
-        <v>6.95</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>14801</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1718,10 +1286,10 @@
         <v>5059008075</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4713031500</v>
@@ -1730,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>393091</v>
@@ -1742,7 +1310,7 @@
         <v>5885</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1751,108 +1319,60 @@
         <v>0</v>
       </c>
       <c r="R9">
+        <v>7.06</v>
+      </c>
+      <c r="S9">
+        <v>8.24</v>
+      </c>
+      <c r="T9">
+        <v>59.87</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>7.06</v>
+      </c>
+      <c r="W9">
+        <v>7.06</v>
+      </c>
+      <c r="X9">
+        <v>10.72</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="AC9">
+        <v>10.72</v>
+      </c>
+      <c r="AD9">
         <v>21.18</v>
       </c>
-      <c r="S9">
-        <v>19.48</v>
-      </c>
-      <c r="T9">
-        <v>32.29</v>
-      </c>
-      <c r="U9">
-        <v>8.24</v>
-      </c>
-      <c r="V9">
-        <v>18.82</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>83.53</v>
-      </c>
-      <c r="Y9">
-        <v>16.47</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>7.06</v>
-      </c>
-      <c r="AI9">
-        <v>8.24</v>
-      </c>
-      <c r="AJ9">
-        <v>59.87</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>7.06</v>
-      </c>
-      <c r="AM9">
-        <v>7.06</v>
-      </c>
-      <c r="AN9">
-        <v>10.72</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="AS9">
-        <v>10.72</v>
-      </c>
-      <c r="AT9">
-        <v>21.18</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>16838</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1864,10 +1384,10 @@
         <v>5059008075</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4713031500</v>
@@ -1876,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>650568</v>
@@ -1888,117 +1408,69 @@
         <v>7488</v>
       </c>
       <c r="O10">
-        <v>56.64</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>43.36</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>14.77</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="T10">
-        <v>3.14</v>
+        <v>55.7</v>
       </c>
       <c r="U10">
-        <v>35.59</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>3.14</v>
+        <v>7.54</v>
       </c>
       <c r="W10">
-        <v>43.36</v>
+        <v>6.21</v>
       </c>
       <c r="X10">
-        <v>71.56</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>24.19</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>77.3</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>6.21</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>7.54</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="AI10">
-        <v>21.6</v>
-      </c>
-      <c r="AJ10">
-        <v>55.7</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>7.54</v>
-      </c>
-      <c r="AM10">
-        <v>6.21</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>77.3</v>
-      </c>
-      <c r="AS10">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="AT10">
-        <v>6.21</v>
-      </c>
-      <c r="AU10">
-        <v>7.54</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>18890</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202010</v>
@@ -2010,10 +1482,10 @@
         <v>5059008075</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4713031500</v>
@@ -2022,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>119169</v>
@@ -2034,7 +1506,7 @@
         <v>5825</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2043,41 +1515,41 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>17.17</v>
+        <v>21.03</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>55.79</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>23.18</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>55.79</v>
+      </c>
+      <c r="AC11">
         <v>44.21</v>
       </c>
-      <c r="T11">
-        <v>38.63</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>40.34</v>
-      </c>
-      <c r="Y11">
-        <v>59.66</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
       <c r="AD11">
         <v>0</v>
       </c>
@@ -2087,64 +1559,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>21.03</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>55.79</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>23.18</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>55.79</v>
-      </c>
-      <c r="AS11">
-        <v>44.21</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>20935</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202011</v>
@@ -2156,10 +1580,10 @@
         <v>5059008075</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4713031500</v>
@@ -2168,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>112005</v>
@@ -2180,7 +1604,7 @@
         <v>7333</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2189,96 +1613,48 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>18.18</v>
       </c>
-      <c r="S12">
-        <v>40.91</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>40.91</v>
-      </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>81.81999999999999</v>
       </c>
-      <c r="Y12">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>18.18</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>81.81999999999999</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>18.18</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>81.81999999999999</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>18.18</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
         <v>0</v>
       </c>
     </row>
